--- a/Analyzed/try8/data_2017.xlsx
+++ b/Analyzed/try8/data_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,72 +440,97 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>caseA_rank</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>caseC_rank</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>caseA_rankdif</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>caseB_rankdif</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>caseC_rankdif</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>caseD_rankdif</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>caseX_rankdif</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>caseY_rankdif</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>caseZ_rankdif</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ACXZcomb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>AXcomb</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>AZcomb</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CXcomb</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CZcomb</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>XZcomb</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AZhapdif</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CZhapdif</t>
         </is>
       </c>
     </row>
@@ -540,13 +565,13 @@
         <v>56.78</v>
       </c>
       <c r="J2">
-        <v>587.6</v>
+        <v>992.1316200000001</v>
       </c>
       <c r="K2">
         <v>1689.441</v>
       </c>
       <c r="L2">
-        <v>573.09</v>
+        <v>1122.71495</v>
       </c>
       <c r="M2">
         <v>57.27857523493425</v>
@@ -558,49 +583,64 @@
         <v>-229.99</v>
       </c>
       <c r="P2">
-        <v>531.1386520109971</v>
+        <v>700.7483192564046</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <v>2</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>8</v>
       </c>
-      <c r="V2">
+      <c r="Y2">
         <v>6</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <v>9</v>
       </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>2</v>
-      </c>
       <c r="AA2">
         <v>1</v>
       </c>
       <c r="AB2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>3</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -634,13 +674,13 @@
         <v>58.85000000000001</v>
       </c>
       <c r="J3">
-        <v>584.4</v>
+        <v>916.1500600000001</v>
       </c>
       <c r="K3">
         <v>2072.354</v>
       </c>
       <c r="L3">
-        <v>545.37</v>
+        <v>934.37855</v>
       </c>
       <c r="M3">
         <v>57.07285333693019</v>
@@ -652,37 +692,37 @@
         <v>-156.56</v>
       </c>
       <c r="P3">
-        <v>601.0027226257673</v>
+        <v>791.6542943515437</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>8</v>
       </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>3</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
       <c r="Y3">
         <v>1</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA3">
         <v>1</v>
@@ -691,9 +731,24 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
         <v>1</v>
       </c>
     </row>
@@ -728,13 +783,13 @@
         <v>47.5</v>
       </c>
       <c r="J4">
-        <v>530.4</v>
+        <v>775.3756400000001</v>
       </c>
       <c r="K4">
         <v>1045.9</v>
       </c>
       <c r="L4">
-        <v>518.28</v>
+        <v>826.76895</v>
       </c>
       <c r="M4">
         <v>59.73669378367577</v>
@@ -746,48 +801,63 @@
         <v>-95.71000000000001</v>
       </c>
       <c r="P4">
-        <v>455.1522453936142</v>
+        <v>595.5520991961512</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>7</v>
       </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-      <c r="U4">
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
         <v>5</v>
       </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>2</v>
-      </c>
       <c r="Y4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>2</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
         <v>1</v>
       </c>
     </row>
@@ -822,13 +892,13 @@
         <v>49.98999999999999</v>
       </c>
       <c r="J5">
-        <v>562.6</v>
+        <v>794.12719</v>
       </c>
       <c r="K5">
         <v>1398.164</v>
       </c>
       <c r="L5">
-        <v>546</v>
+        <v>856.39365</v>
       </c>
       <c r="M5">
         <v>67.51044818476016</v>
@@ -840,48 +910,63 @@
         <v>-95.28</v>
       </c>
       <c r="P5">
-        <v>467.5736850557036</v>
+        <v>609.4678792007055</v>
       </c>
       <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
         <v>4</v>
       </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
       <c r="T5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <v>2</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z5">
         <v>2</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
         <v>1</v>
       </c>
     </row>
@@ -916,13 +1001,13 @@
         <v>41.06999999999999</v>
       </c>
       <c r="J6">
-        <v>555.4</v>
+        <v>715.73009</v>
       </c>
       <c r="K6">
         <v>1332.244</v>
       </c>
       <c r="L6">
-        <v>481.11</v>
+        <v>631.29535</v>
       </c>
       <c r="M6">
         <v>66.67970320100136</v>
@@ -934,34 +1019,34 @@
         <v>-181.59</v>
       </c>
       <c r="P6">
-        <v>441.9765550278482</v>
+        <v>578.6552996863705</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T6">
         <v>5</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z6">
         <v>3</v>
@@ -970,13 +1055,28 @@
         <v>1</v>
       </c>
       <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
         <v>5</v>
       </c>
-      <c r="AC6">
-        <v>1</v>
-      </c>
-      <c r="AD6">
-        <v>2</v>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>2</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1010,13 +1110,13 @@
         <v>41.69</v>
       </c>
       <c r="J7">
-        <v>486</v>
+        <v>484.3526000000001</v>
       </c>
       <c r="K7">
         <v>2959.409</v>
       </c>
       <c r="L7">
-        <v>495.81</v>
+        <v>566.81835</v>
       </c>
       <c r="M7">
         <v>77.01033248472955</v>
@@ -1028,49 +1128,64 @@
         <v>-94.92</v>
       </c>
       <c r="P7">
-        <v>481.886300575421</v>
+        <v>630.5610625763348</v>
       </c>
       <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
         <v>6</v>
-      </c>
-      <c r="R7">
-        <v>4</v>
-      </c>
-      <c r="S7">
-        <v>5</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
       </c>
       <c r="U7">
         <v>4</v>
       </c>
       <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
         <v>4</v>
       </c>
-      <c r="W7">
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>4</v>
+      </c>
+      <c r="Z7">
         <v>5</v>
       </c>
-      <c r="X7">
-        <v>3</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <v>2</v>
-      </c>
       <c r="AA7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD7">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AE7">
+        <v>2</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>3</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1104,13 +1219,13 @@
         <v>45.28</v>
       </c>
       <c r="J8">
-        <v>512</v>
+        <v>674.24554</v>
       </c>
       <c r="K8">
         <v>1670.481</v>
       </c>
       <c r="L8">
-        <v>494.13</v>
+        <v>777.6013</v>
       </c>
       <c r="M8">
         <v>69.0170027011323</v>
@@ -1122,34 +1237,34 @@
         <v>-217.73</v>
       </c>
       <c r="P8">
-        <v>366.4739014335011</v>
+        <v>476.48418516871</v>
       </c>
       <c r="Q8">
         <v>7</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>3</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z8">
         <v>2</v>
@@ -1158,13 +1273,28 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>2</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1198,13 +1328,13 @@
         <v>36.93</v>
       </c>
       <c r="J9">
-        <v>522.6</v>
+        <v>604.3155300000001</v>
       </c>
       <c r="K9">
         <v>1580.339</v>
       </c>
       <c r="L9">
-        <v>498.75</v>
+        <v>665.35455</v>
       </c>
       <c r="M9">
         <v>83.12167418822231</v>
@@ -1216,38 +1346,38 @@
         <v>-151.72</v>
       </c>
       <c r="P9">
-        <v>263.8384221756523</v>
+        <v>339.8779029533624</v>
       </c>
       <c r="Q9">
         <v>8</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
         <v>7</v>
       </c>
-      <c r="V9">
-        <v>3</v>
-      </c>
-      <c r="W9">
+      <c r="Y9">
+        <v>3</v>
+      </c>
+      <c r="Z9">
         <v>4</v>
       </c>
-      <c r="X9">
-        <v>2</v>
-      </c>
-      <c r="Y9">
-        <v>2</v>
-      </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
       <c r="AA9">
         <v>2</v>
       </c>
@@ -1255,10 +1385,25 @@
         <v>1</v>
       </c>
       <c r="AC9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>2</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>2</v>
+      </c>
+      <c r="AI9">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1292,13 +1437,13 @@
         <v>31.84</v>
       </c>
       <c r="J10">
-        <v>532.2</v>
+        <v>792.4838100000001</v>
       </c>
       <c r="K10">
         <v>1269.955</v>
       </c>
       <c r="L10">
-        <v>527.9399999999999</v>
+        <v>856.21165</v>
       </c>
       <c r="M10">
         <v>71.82114438629462</v>
@@ -1310,49 +1455,64 @@
         <v>-172.77</v>
       </c>
       <c r="P10">
-        <v>332.3165836217555</v>
+        <v>432.6679551406153</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R10">
         <v>4</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T10">
+        <v>9</v>
+      </c>
+      <c r="U10">
         <v>5</v>
       </c>
-      <c r="U10">
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+      <c r="X10">
         <v>6</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>2</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AE10">
+        <v>3</v>
+      </c>
+      <c r="AF10">
+        <v>4</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>3</v>
+      </c>
+      <c r="AI10">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1386,13 +1546,13 @@
         <v>25.26</v>
       </c>
       <c r="J11">
-        <v>509</v>
+        <v>536.99283</v>
       </c>
       <c r="K11">
         <v>1232.63</v>
       </c>
       <c r="L11">
-        <v>523.53</v>
+        <v>651.1029</v>
       </c>
       <c r="M11">
         <v>67.87368312479876</v>
@@ -1404,48 +1564,63 @@
         <v>-166.42</v>
       </c>
       <c r="P11">
-        <v>353.610338072355</v>
+        <v>461.6198541025247</v>
       </c>
       <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <v>8</v>
+      </c>
+      <c r="S11">
+        <v>8</v>
+      </c>
+      <c r="T11">
         <v>10</v>
       </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11">
         <v>5</v>
       </c>
-      <c r="U11">
-        <v>5</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <v>4</v>
       </c>
-      <c r="X11">
-        <v>2</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
       <c r="AA11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>2</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
         <v>1</v>
       </c>
     </row>
